--- a/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_20_.xlsx
+++ b/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_20_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -543,12 +544,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -568,7 +570,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -689,12 +691,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -708,7 +711,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -776,212 +779,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1122,12 +1133,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1141,7 +1153,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1211,215 +1223,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1560,12 +1580,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1579,7 +1600,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1644,266 +1665,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>8845</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>OOLU9474116</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>TZINI</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>918/2018</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>ACI GODREJ AGROVET PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>661</v>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>2018-5192</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="d">
-        <v>2018-03-26T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2018-03-26T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t>OOLU4044785680</t>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8846</v>
+        <v>8845</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>OOLU9243061</t>
+          <t>OOLU9474116</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1959,12 +1882,12 @@
         </is>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>2018-5193</t>
+          <t>2018-5192</t>
         </is>
       </c>
       <c r="T8" s="0" t="d">
@@ -2004,11 +1927,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8847</v>
+        <v>8846</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>OOLU8695370</t>
+          <t>OOLU9243061</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2064,12 +1987,12 @@
         </is>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>2018-5194</t>
+          <t>2018-5193</t>
         </is>
       </c>
       <c r="T9" s="0" t="d">
@@ -2109,11 +2032,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8848</v>
+        <v>8847</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>OOCU6969711</t>
+          <t>OOLU8695370</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2169,12 +2092,12 @@
         </is>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2018-5196</t>
+          <t>2018-5194</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
@@ -2214,11 +2137,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8849</v>
+        <v>8848</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>OOCU6507950</t>
+          <t>OOCU6969711</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2274,12 +2197,12 @@
         </is>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2018-5195</t>
+          <t>2018-5196</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2319,11 +2242,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8850</v>
+        <v>8849</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>OOCU7053148</t>
+          <t>OOCU6507950</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2379,12 +2302,12 @@
         </is>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2018-5197</t>
+          <t>2018-5195</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
@@ -2424,11 +2347,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8851</v>
+        <v>8850</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>OOCU6870610</t>
+          <t>OOCU7053148</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2484,19 +2407,19 @@
         </is>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>664</v>
+        <v>583</v>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2018-5303</t>
+          <t>2018-5197</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
       <c r="U13" s="0" t="d">
-        <v>2018-03-28T00:00:00</v>
+        <v>2018-03-26T00:00:00</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
@@ -2529,11 +2452,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8852</v>
+        <v>8851</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>OOLU8214109</t>
+          <t>OOCU6870610</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2589,12 +2512,12 @@
         </is>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-5306</t>
+          <t>2018-5303</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
@@ -2634,11 +2557,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8853</v>
+        <v>8852</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>OOCU6534391</t>
+          <t>OOLU8214109</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2694,12 +2617,12 @@
         </is>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-5302</t>
+          <t>2018-5306</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2739,11 +2662,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8854</v>
+        <v>8853</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>OOCU6940390</t>
+          <t>OOCU6534391</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2799,12 +2722,12 @@
         </is>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-5304</t>
+          <t>2018-5302</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2844,11 +2767,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8855</v>
+        <v>8854</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>OOLU6853564</t>
+          <t>OOCU6940390</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2904,12 +2827,12 @@
         </is>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-5305</t>
+          <t>2018-5304</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
@@ -2949,11 +2872,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9736</v>
+        <v>8855</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>OOLU8262806</t>
+          <t>OOLU6853564</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2981,17 +2904,17 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>MOLLY SCHULTE</t>
+          <t>TZINI</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>2753/2018</t>
+          <t>918/2018</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>AKBAR COTTON MILLS LTD.</t>
+          <t>ACI GODREJ AGROVET PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -3005,25 +2928,23 @@
       <c r="O18" s="0"/>
       <c r="P18" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q18" s="0" t="inlineStr">
-        <is>
-          <t>OOLFFP3899</t>
-        </is>
+          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>656</v>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-15654</t>
+          <t>2018-5305</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-03-26T00:00:00</v>
       </c>
       <c r="U18" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-03-28T00:00:00</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
@@ -3040,11 +2961,11 @@
       </c>
       <c r="Y18" s="0" t="inlineStr">
         <is>
-          <t>OOLU2608615240</t>
+          <t>OOLU4044785680</t>
         </is>
       </c>
       <c r="Z18" s="0" t="n">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0" t="inlineStr">
@@ -3056,11 +2977,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9737</v>
+        <v>9736</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>OOCU7266354</t>
+          <t>OOLU8262806</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3117,13 +3038,13 @@
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3901</t>
+          <t>OOLFFP3899</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-15655</t>
+          <t>2018-15654</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
@@ -3161,14 +3082,122 @@
       </c>
       <c r="AC19" s="0"/>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>9737</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>OOCU7266354</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>MOLLY SCHULTE</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>2753/2018</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>AKBAR COTTON MILLS LTD.</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>OOLFFP3901</t>
+        </is>
+      </c>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0" t="inlineStr">
+        <is>
+          <t>2018-15655</t>
+        </is>
+      </c>
+      <c r="T20" s="0" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="U20" s="0" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="V20" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>OOLU2608615240</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC20" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -3321,12 +3350,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -3340,7 +3370,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -3398,209 +3428,128 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>11032</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>OOCU6416573</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>MOLLY SCHULTE</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>2753/2018</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>OOLU2608615240</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>AKBAR COTTON MILLS LTD.</t>
-        </is>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>OOLFFP3923</t>
-        </is>
-      </c>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>11033</v>
+        <v>11032</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>OOCU7293030</t>
+          <t>OOCU6416573</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -3674,7 +3623,7 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3933</t>
+          <t>OOLFFP3923</t>
         </is>
       </c>
       <c r="U8" s="0"/>
@@ -3684,11 +3633,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>11034</v>
+        <v>11033</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>OOCU7430180</t>
+          <t>OOCU7293030</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -3762,7 +3711,7 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3907</t>
+          <t>OOLFFP3933</t>
         </is>
       </c>
       <c r="U9" s="0"/>
@@ -3772,11 +3721,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11035</v>
+        <v>11034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>OOLU6792772</t>
+          <t>OOCU7430180</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -3832,11 +3781,7 @@
         </is>
       </c>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="inlineStr">
-        <is>
-          <t>2018-15656</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
       <c r="Q10" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -3854,7 +3799,7 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6556</t>
+          <t>OOLFFP3907</t>
         </is>
       </c>
       <c r="U10" s="0"/>
@@ -3864,11 +3809,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>OOLU6798934</t>
+          <t>OOLU6792772</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -3924,7 +3869,11 @@
         </is>
       </c>
       <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>2018-15656</t>
+        </is>
+      </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -3942,7 +3891,7 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6588</t>
+          <t>OOLFFP6556</t>
         </is>
       </c>
       <c r="U11" s="0"/>
@@ -3952,11 +3901,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>11037</v>
+        <v>11036</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>OOLU8769257</t>
+          <t>OOLU6798934</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -4030,7 +3979,7 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6521</t>
+          <t>OOLFFP6588</t>
         </is>
       </c>
       <c r="U12" s="0"/>
@@ -4040,11 +3989,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>11038</v>
+        <v>11037</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>OOLU8801765</t>
+          <t>OOLU8769257</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -4118,7 +4067,7 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6613</t>
+          <t>OOLFFP6521</t>
         </is>
       </c>
       <c r="U13" s="0"/>
@@ -4128,11 +4077,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>11039</v>
+        <v>11038</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>OOLU8822460</t>
+          <t>OOLU8801765</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -4206,7 +4155,7 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3970</t>
+          <t>OOLFFP6613</t>
         </is>
       </c>
       <c r="U14" s="0"/>
@@ -4216,11 +4165,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>11040</v>
+        <v>11039</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>OOLU8867206</t>
+          <t>OOLU8822460</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -4294,7 +4243,7 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6555</t>
+          <t>OOLFFP3970</t>
         </is>
       </c>
       <c r="U15" s="0"/>
@@ -4304,11 +4253,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11041</v>
+        <v>11040</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>OOLU8867546</t>
+          <t>OOLU8867206</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -4382,7 +4331,7 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3996</t>
+          <t>OOLFFP6555</t>
         </is>
       </c>
       <c r="U16" s="0"/>
@@ -4392,11 +4341,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>11042</v>
+        <v>11041</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>OOLU8925133</t>
+          <t>OOLU8867546</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -4470,7 +4419,7 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3955</t>
+          <t>OOLFFP3996</t>
         </is>
       </c>
       <c r="U17" s="0"/>
@@ -4480,11 +4429,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>11043</v>
+        <v>11042</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>OOLU9431238</t>
+          <t>OOLU8925133</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -4558,7 +4507,7 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3980</t>
+          <t>OOLFFP3955</t>
         </is>
       </c>
       <c r="U18" s="0"/>
@@ -4568,11 +4517,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>11044</v>
+        <v>11043</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>OOLU9711394</t>
+          <t>OOLU9431238</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -4646,7 +4595,7 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6561</t>
+          <t>OOLFFP3980</t>
         </is>
       </c>
       <c r="U19" s="0"/>
@@ -4654,14 +4603,103 @@
         <v>2018-09-15T00:00:00</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>11044</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>OOLU9711394</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>OCC</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>MOLLY SCHULTE</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>2753/2018</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>OOLU2608615240</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>AKBAR COTTON MILLS LTD.</t>
+        </is>
+      </c>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="R20" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="S20" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="T20" s="0" t="inlineStr">
+        <is>
+          <t>OOLFFP6561</t>
+        </is>
+      </c>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
